--- a/data/ownership_2021.xlsx
+++ b/data/ownership_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vega\Documents\Business Analytics\Final Semester\baca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413B3365-4A15-4985-9607-A7A7D3F6B19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4BBB50-4124-47A7-9A89-8EF88464751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6720" yWindow="4150" windowWidth="14630" windowHeight="9680" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan'21" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="18">
   <si>
     <t>BANK*</t>
   </si>
@@ -931,9 +931,6 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +938,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM50"/>
+  <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,106 +1292,106 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44200</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="163">
         <v>44201</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="164">
+      <c r="F1" s="164"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="163">
         <v>44202</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="164">
+      <c r="I1" s="164"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="163">
         <v>44203</v>
       </c>
-      <c r="L1" s="165"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="164">
+      <c r="L1" s="164"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="163">
         <v>44204</v>
       </c>
-      <c r="O1" s="165"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="164">
+      <c r="O1" s="164"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="163">
         <v>44207</v>
       </c>
-      <c r="R1" s="165"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="164">
+      <c r="R1" s="164"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="163">
         <v>44208</v>
       </c>
-      <c r="U1" s="165"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="164">
+      <c r="U1" s="164"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="163">
         <v>44209</v>
       </c>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="164">
+      <c r="X1" s="164"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="163">
         <v>44210</v>
       </c>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="164">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="163">
         <v>44211</v>
       </c>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="164">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="163">
         <v>44214</v>
       </c>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="164">
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="163">
         <v>44215</v>
       </c>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="164">
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="163">
         <v>44216</v>
       </c>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="164">
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="163">
         <v>44217</v>
       </c>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="164">
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="163">
         <v>44218</v>
       </c>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="164">
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="163">
         <v>44221</v>
       </c>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="164">
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="165"/>
+      <c r="AX1" s="163">
         <v>44222</v>
       </c>
-      <c r="AY1" s="165"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="164">
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="163">
         <v>44223</v>
       </c>
-      <c r="BB1" s="165"/>
-      <c r="BC1" s="166"/>
-      <c r="BD1" s="164">
+      <c r="BB1" s="164"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="163">
         <v>44224</v>
       </c>
-      <c r="BE1" s="165"/>
-      <c r="BF1" s="166"/>
-      <c r="BG1" s="164">
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="163">
         <v>44225</v>
       </c>
-      <c r="BH1" s="165"/>
-      <c r="BI1" s="166"/>
+      <c r="BH1" s="164"/>
+      <c r="BI1" s="165"/>
       <c r="BJ1" s="13"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.35">
@@ -4591,296 +4591,53 @@
       </c>
       <c r="BJ16" s="13"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16">
-        <f>B3+B6+B10</f>
-        <v>3184.1954069999997</v>
-      </c>
-      <c r="C17" s="16">
-        <f>C3+C6+C10</f>
-        <v>686.56142399999999</v>
-      </c>
-      <c r="D17" s="16">
-        <f>B17+C17</f>
-        <v>3870.7568309999997</v>
-      </c>
-      <c r="E17" s="16">
-        <f>E3+E6+E10</f>
-        <v>3184.1954070000002</v>
-      </c>
-      <c r="F17" s="16">
-        <f>F3+F6+F10</f>
-        <v>686.56142399999999</v>
-      </c>
-      <c r="G17" s="16">
-        <f>E17+F17</f>
-        <v>3870.7568310000001</v>
-      </c>
-      <c r="H17" s="16">
-        <f>H3+H6+H10</f>
-        <v>3184.1954070000002</v>
-      </c>
-      <c r="I17" s="16">
-        <f>I3+I6+I10</f>
-        <v>686.56142399999999</v>
-      </c>
-      <c r="J17" s="16">
-        <f>H17+I17</f>
-        <v>3870.7568310000001</v>
-      </c>
-      <c r="K17" s="16">
-        <f>K3+K6+K10</f>
-        <v>3225.1954069999997</v>
-      </c>
-      <c r="L17" s="16">
-        <f>L3+L6+L10</f>
-        <v>686.56142399999999</v>
-      </c>
-      <c r="M17" s="16">
-        <f>K17+L17</f>
-        <v>3911.7568309999997</v>
-      </c>
-      <c r="N17" s="16">
-        <f>N3+N6+N10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="O17" s="16">
-        <f>O3+O6+O10</f>
-        <v>682.10142399999995</v>
-      </c>
-      <c r="P17" s="16">
-        <f>N17+O17</f>
-        <v>3902.2468309999999</v>
-      </c>
-      <c r="Q17" s="16">
-        <f>Q3+Q6+Q10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="R17" s="16">
-        <f>R3+R6+R10</f>
-        <v>682.10142399999995</v>
-      </c>
-      <c r="S17" s="16">
-        <f>Q17+R17</f>
-        <v>3902.2468309999999</v>
-      </c>
-      <c r="T17" s="16">
-        <f>T3+T6+T10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="U17" s="16">
-        <f>U3+U6+U10</f>
-        <v>682.10142399999995</v>
-      </c>
-      <c r="V17" s="16">
-        <f>T17+U17</f>
-        <v>3902.2468309999999</v>
-      </c>
-      <c r="W17" s="16">
-        <f>W3+W6+W10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="X17" s="16">
-        <f>X3+X6+X10</f>
-        <v>682.10142399999995</v>
-      </c>
-      <c r="Y17" s="16">
-        <f>W17+X17</f>
-        <v>3902.2468309999999</v>
-      </c>
-      <c r="Z17" s="16">
-        <f>Z3+Z6+Z10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="AA17" s="16">
-        <f>AA3+AA6+AA10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AB17" s="16">
-        <f>Z17+AA17</f>
-        <v>3918.2468309999999</v>
-      </c>
-      <c r="AC17" s="16">
-        <f>AC3+AC6+AC10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="AD17" s="16">
-        <f>AD3+AD6+AD10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AE17" s="16">
-        <f>AC17+AD17</f>
-        <v>3918.2468309999999</v>
-      </c>
-      <c r="AF17" s="16">
-        <f>AF3+AF6+AF10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="AG17" s="16">
-        <f>AG3+AG6+AG10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AH17" s="16">
-        <f>AF17+AG17</f>
-        <v>3918.2468309999999</v>
-      </c>
-      <c r="AI17" s="16">
-        <f>AI3+AI6+AI10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="AJ17" s="16">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>698.10142400000007</v>
-      </c>
-      <c r="AK17" s="16">
-        <f>AI17+AJ17</f>
-        <v>3918.2468309999999</v>
-      </c>
-      <c r="AL17" s="16">
-        <f>AL3+AL6+AL10</f>
-        <v>3220.145407</v>
-      </c>
-      <c r="AM17" s="16">
-        <f>AM3+AM6+AM10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AN17" s="16">
-        <f>AL17+AM17</f>
-        <v>3918.2468309999999</v>
-      </c>
-      <c r="AO17" s="16">
-        <f>AO3+AO6+AO10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="AP17" s="16">
-        <f>AP3+AP6+AP10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AQ17" s="16">
-        <f>AO17+AP17</f>
-        <v>3955.9968309999999</v>
-      </c>
-      <c r="AR17" s="16">
-        <f>AR3+AR6+AR10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="AS17" s="16">
-        <f>AS3+AS6+AS10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AT17" s="16">
-        <f>AR17+AS17</f>
-        <v>3955.9968309999999</v>
-      </c>
-      <c r="AU17" s="16">
-        <f>AU3+AU6+AU10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="AV17" s="16">
-        <f>AV3+AV6+AV10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AW17" s="16">
-        <f>AU17+AV17</f>
-        <v>3955.9968309999999</v>
-      </c>
-      <c r="AX17" s="16">
-        <f>AX3+AX6+AX10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="AY17" s="16">
-        <f>AY3+AY6+AY10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="AZ17" s="16">
-        <f>AX17+AY17</f>
-        <v>3955.9968309999999</v>
-      </c>
-      <c r="BA17" s="16">
-        <f>BA3+BA6+BA10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="BB17" s="16">
-        <f>BB3+BB6+BB10</f>
-        <v>698.10142399999995</v>
-      </c>
-      <c r="BC17" s="16">
-        <f>BA17+BB17</f>
-        <v>3955.9968309999999</v>
-      </c>
-      <c r="BD17" s="16">
-        <f>BD3+BD6+BD10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="BE17" s="16">
-        <f>BE3+BE6+BE10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="BF17" s="16">
-        <f>BD17+BE17</f>
-        <v>3971.9968309999999</v>
-      </c>
-      <c r="BG17" s="16">
-        <f>BG3+BG6+BG10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="BH17" s="16">
-        <f>BH3+BH6+BH10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="BI17" s="16">
-        <f>BG17+BH17</f>
-        <v>3971.9968309999999</v>
-      </c>
+    <row r="17" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ17" s="13"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="18" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ18" s="13"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="19" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ19" s="13"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="20" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ20" s="13"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="21" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ21" s="13"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="22" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ22" s="13"/>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="23" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ23" s="13"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="24" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ24" s="13"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="25" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ25" s="13"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="26" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ26" s="13"/>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="27" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ27" s="13"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="28" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ28" s="13"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="29" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ29" s="13"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="30" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ30" s="13"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="31" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ31" s="13"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="BJ32" s="13"/>
+    <row r="34" spans="62:62" x14ac:dyDescent="0.35">
+      <c r="BJ34" s="13"/>
     </row>
     <row r="35" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ35" s="13"/>
@@ -4918,11 +4675,8 @@
     <row r="46" spans="62:62" x14ac:dyDescent="0.35">
       <c r="BJ46" s="13"/>
     </row>
-    <row r="47" spans="62:62" x14ac:dyDescent="0.35">
-      <c r="BJ47" s="13"/>
-    </row>
-    <row r="50" spans="62:62" x14ac:dyDescent="0.35">
-      <c r="BJ50" s="13"/>
+    <row r="49" spans="62:62" x14ac:dyDescent="0.35">
+      <c r="BJ49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4955,10 +4709,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BJ17"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView zoomScale="81" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4971,101 +4725,101 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44228</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44229</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44230</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44231</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44232</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44235</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="164">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="163">
         <v>44236</v>
       </c>
-      <c r="U1" s="165"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="164">
+      <c r="U1" s="164"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="163">
         <v>44237</v>
       </c>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="164">
+      <c r="X1" s="164"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="163">
         <v>44238</v>
       </c>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="164">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="163">
         <v>44242</v>
       </c>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="164">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="163">
         <v>44243</v>
       </c>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="164">
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="163">
         <v>44244</v>
       </c>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="164">
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="163">
         <v>44245</v>
       </c>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="164">
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="163">
         <v>44246</v>
       </c>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="166"/>
-      <c r="AR1" s="164">
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="163">
         <v>44249</v>
       </c>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="166"/>
-      <c r="AU1" s="164">
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="163">
         <v>44250</v>
       </c>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="166"/>
-      <c r="AX1" s="164">
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="165"/>
+      <c r="AX1" s="163">
         <v>44251</v>
       </c>
-      <c r="AY1" s="165"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="164">
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="163">
         <v>44252</v>
       </c>
-      <c r="BB1" s="165"/>
-      <c r="BC1" s="166"/>
-      <c r="BD1" s="164">
+      <c r="BB1" s="164"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="163">
         <v>44253</v>
       </c>
-      <c r="BE1" s="165"/>
-      <c r="BF1" s="166"/>
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="165"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -8091,246 +7845,19 @@
         <v>243.39345</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16">
-        <f>B3+B6+B10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="C17" s="16">
-        <f>C3+C6+C10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="D17" s="16">
-        <f>B17+C17</f>
-        <v>3971.9968309999999</v>
-      </c>
-      <c r="E17" s="16">
-        <f>E3+E6+E10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="F17" s="16">
-        <f>F3+F6+F10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="G17" s="16">
-        <f>E17+F17</f>
-        <v>3971.9968309999999</v>
-      </c>
-      <c r="H17" s="16">
-        <f>H3+H6+H10</f>
-        <v>3257.895407</v>
-      </c>
-      <c r="I17" s="16">
-        <f>I3+I6+I10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="J17" s="16">
-        <f>H17+I17</f>
-        <v>3971.9968309999999</v>
-      </c>
-      <c r="K17" s="16">
-        <f>K3+K6+K10</f>
-        <v>3292.895407</v>
-      </c>
-      <c r="L17" s="16">
-        <f>L3+L6+L10</f>
-        <v>714.10142399999995</v>
-      </c>
-      <c r="M17" s="16">
-        <f>K17+L17</f>
-        <v>4006.9968309999999</v>
-      </c>
-      <c r="N17" s="16">
-        <f>N3+N6+N10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="O17" s="16">
-        <f>O3+O6+O10</f>
-        <v>712.15142399999991</v>
-      </c>
-      <c r="P17" s="16">
-        <f>N17+O17</f>
-        <v>4000.5468309999997</v>
-      </c>
-      <c r="Q17" s="16">
-        <f>Q3+Q6+Q10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="R17" s="16">
-        <f>R3+R6+R10</f>
-        <v>712.15142399999991</v>
-      </c>
-      <c r="S17" s="16">
-        <f>Q17+R17</f>
-        <v>4000.5468309999997</v>
-      </c>
-      <c r="T17" s="16">
-        <f>T3+T6+T10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="U17" s="16">
-        <f>U3+U6+U10</f>
-        <v>712.15142400000002</v>
-      </c>
-      <c r="V17" s="16">
-        <f>T17+U17</f>
-        <v>4000.5468310000001</v>
-      </c>
-      <c r="W17" s="16">
-        <f>W3+W6+W10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="X17" s="16">
-        <f>X3+X6+X10</f>
-        <v>712.15142400000002</v>
-      </c>
-      <c r="Y17" s="16">
-        <f>W17+X17</f>
-        <v>4000.5468310000001</v>
-      </c>
-      <c r="Z17" s="16">
-        <f>Z3+Z6+Z10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="AA17" s="16">
-        <f>AA3+AA6+AA10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AB17" s="16">
-        <f>Z17+AA17</f>
-        <v>4012.5468309999997</v>
-      </c>
-      <c r="AC17" s="16">
-        <f>AC3+AC6+AC10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="AD17" s="16">
-        <f>AD3+AD6+AD10</f>
-        <v>724.15142400000002</v>
-      </c>
-      <c r="AE17" s="16">
-        <f>AC17+AD17</f>
-        <v>4012.5468310000001</v>
-      </c>
-      <c r="AF17" s="16">
-        <f>AF3+AF6+AF10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="AG17" s="16">
-        <f>AG3+AG6+AG10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AH17" s="16">
-        <f>AF17+AG17</f>
-        <v>4012.5468309999997</v>
-      </c>
-      <c r="AI17" s="16">
-        <f>AI3+AI6+AI10</f>
-        <v>3288.395407</v>
-      </c>
-      <c r="AJ17" s="16">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AK17" s="16">
-        <f>AI17+AJ17</f>
-        <v>4012.5468309999997</v>
-      </c>
-      <c r="AL17" s="16">
-        <f>AL3+AL6+AL10</f>
-        <v>3317.395407</v>
-      </c>
-      <c r="AM17" s="16">
-        <f>AM3+AM6+AM10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AN17" s="16">
-        <f>AL17+AM17</f>
-        <v>4041.5468309999997</v>
-      </c>
-      <c r="AO17" s="16">
-        <f>AO3+AO6+AO10</f>
-        <v>3317.395407</v>
-      </c>
-      <c r="AP17" s="16">
-        <f>AP3+AP6+AP10</f>
-        <v>724.15142400000002</v>
-      </c>
-      <c r="AQ17" s="16">
-        <f>AO17+AP17</f>
-        <v>4041.5468310000001</v>
-      </c>
-      <c r="AR17" s="16">
-        <f>AR3+AR6+AR10</f>
-        <v>3317.395407</v>
-      </c>
-      <c r="AS17" s="16">
-        <f>AS3+AS6+AS10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AT17" s="16">
-        <f>AR17+AS17</f>
-        <v>4041.5468309999997</v>
-      </c>
-      <c r="AU17" s="16">
-        <f>AU3+AU6+AU10</f>
-        <v>3317.395407</v>
-      </c>
-      <c r="AV17" s="16">
-        <f>AV3+AV6+AV10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AW17" s="16">
-        <f>AU17+AV17</f>
-        <v>4041.5468309999997</v>
-      </c>
-      <c r="AX17" s="16">
-        <f>AX3+AX6+AX10</f>
-        <v>3343.3962750000001</v>
-      </c>
-      <c r="AY17" s="16">
-        <f>AY3+AY6+AY10</f>
-        <v>724.15142399999991</v>
-      </c>
-      <c r="AZ17" s="16">
-        <f>AX17+AY17</f>
-        <v>4067.5476989999997</v>
-      </c>
-      <c r="BA17" s="16">
-        <f>BA3+BA6+BA10</f>
-        <v>3343.3962750000001</v>
-      </c>
-      <c r="BB17" s="16">
-        <f>BB3+BB6+BB10</f>
-        <v>736.15142399999991</v>
-      </c>
-      <c r="BC17" s="16">
-        <f>BA17+BB17</f>
-        <v>4079.5476989999997</v>
-      </c>
-      <c r="BD17" s="16">
-        <f>BD3+BD6+BD10</f>
-        <v>3343.3962750000001</v>
-      </c>
-      <c r="BE17" s="16">
-        <f>BE3+BE6+BE10</f>
-        <v>736.15142400000002</v>
-      </c>
-      <c r="BF17" s="16">
-        <f>BD17+BE17</f>
-        <v>4079.5476990000002</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="B1:D1"/>
@@ -8339,13 +7866,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="BA1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8353,10 +7874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD44"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8370,116 +7891,116 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44256</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44257</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44258</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44259</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44260</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44263</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166">
         <v>44264</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166">
         <v>44265</v>
       </c>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163">
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166">
         <v>44267</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163">
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166">
         <v>44270</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166">
         <v>44271</v>
       </c>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163">
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166">
         <v>44272</v>
       </c>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166">
         <v>44273</v>
       </c>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163">
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166">
         <v>44274</v>
       </c>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163">
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166">
         <v>44277</v>
       </c>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163">
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166">
         <v>44278</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163">
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166">
         <v>44279</v>
       </c>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163">
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166">
         <v>44280</v>
       </c>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163">
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166">
         <v>44281</v>
       </c>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163">
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166">
         <v>44284</v>
       </c>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163">
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="166"/>
+      <c r="BJ1" s="166">
         <v>44285</v>
       </c>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
-      <c r="BM1" s="163">
+      <c r="BK1" s="166"/>
+      <c r="BL1" s="166"/>
+      <c r="BM1" s="166">
         <v>44286</v>
       </c>
-      <c r="BN1" s="163"/>
-      <c r="BO1" s="163"/>
+      <c r="BN1" s="166"/>
+      <c r="BO1" s="166"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -11968,275 +11489,6 @@
       <c r="BO16" s="20">
         <f t="shared" si="21"/>
         <v>250.75133800000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16">
-        <f>B3+B6+B10</f>
-        <v>3343.3962750000001</v>
-      </c>
-      <c r="C17" s="16">
-        <f>C3+C6+C10</f>
-        <v>736.15142400000002</v>
-      </c>
-      <c r="D17" s="16">
-        <f>B17+C17</f>
-        <v>4079.5476990000002</v>
-      </c>
-      <c r="E17" s="16">
-        <f>E3+E6+E10</f>
-        <v>3343.3962749999996</v>
-      </c>
-      <c r="F17" s="16">
-        <f>F3+F6+F10</f>
-        <v>733.15142400000013</v>
-      </c>
-      <c r="G17" s="16">
-        <f>E17+F17</f>
-        <v>4076.5476989999997</v>
-      </c>
-      <c r="H17" s="16">
-        <f>H3+H6+H10</f>
-        <v>3343.3962750000001</v>
-      </c>
-      <c r="I17" s="16">
-        <f>I3+I6+I10</f>
-        <v>733.15142400000002</v>
-      </c>
-      <c r="J17" s="16">
-        <f>H17+I17</f>
-        <v>4076.5476990000002</v>
-      </c>
-      <c r="K17" s="16">
-        <f>K3+K6+K10</f>
-        <v>3362.1762750000003</v>
-      </c>
-      <c r="L17" s="16">
-        <f>L3+L6+L10</f>
-        <v>733.15097900000001</v>
-      </c>
-      <c r="M17" s="16">
-        <f>K17+L17</f>
-        <v>4095.3272540000003</v>
-      </c>
-      <c r="N17" s="16">
-        <f>N3+N6+N10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="O17" s="16">
-        <f>O3+O6+O10</f>
-        <v>733.15142400000002</v>
-      </c>
-      <c r="P17" s="16">
-        <f>N17+O17</f>
-        <v>4095.3276989999999</v>
-      </c>
-      <c r="Q17" s="16">
-        <f>Q3+Q6+Q10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="R17" s="16">
-        <f>R3+R6+R10</f>
-        <v>733.15142400000002</v>
-      </c>
-      <c r="S17" s="16">
-        <f>Q17+R17</f>
-        <v>4095.3276989999999</v>
-      </c>
-      <c r="T17" s="16">
-        <f>T3+T6+T10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="U17" s="16">
-        <f>U3+U6+U10</f>
-        <v>733.15142400000002</v>
-      </c>
-      <c r="V17" s="16">
-        <f>T17+U17</f>
-        <v>4095.3276989999999</v>
-      </c>
-      <c r="W17" s="16">
-        <f>W3+W6+W10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="X17" s="16">
-        <f>X3+X6+X10</f>
-        <v>724.71485400000006</v>
-      </c>
-      <c r="Y17" s="16">
-        <f>W17+X17</f>
-        <v>4086.8911289999996</v>
-      </c>
-      <c r="Z17" s="16">
-        <f>Z3+Z6+Z10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="AA17" s="16">
-        <f>AA3+AA6+AA10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AB17" s="16">
-        <f>Z17+AA17</f>
-        <v>4098.8911289999996</v>
-      </c>
-      <c r="AC17" s="16">
-        <f>AC3+AC6+AC10</f>
-        <v>3362.1762750000003</v>
-      </c>
-      <c r="AD17" s="16">
-        <f>AD3+AD6+AD10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AE17" s="16">
-        <f>AC17+AD17</f>
-        <v>4098.8911290000005</v>
-      </c>
-      <c r="AF17" s="60">
-        <f>AF3+AF6+AF10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="AG17" s="60">
-        <f>AG3+AG6+AG10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AH17" s="60">
-        <f>AF17+AG17</f>
-        <v>4098.8911289999996</v>
-      </c>
-      <c r="AI17" s="60">
-        <f>AI3+AI6+AI10</f>
-        <v>3362.1762749999998</v>
-      </c>
-      <c r="AJ17" s="60">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AK17" s="60">
-        <f>AI17+AJ17</f>
-        <v>4098.8911289999996</v>
-      </c>
-      <c r="AL17" s="60">
-        <f>AL3+AL6+AL10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="AM17" s="60">
-        <f>AM3+AM6+AM10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AN17" s="60">
-        <f>AL17+AM17</f>
-        <v>4126.8911289999996</v>
-      </c>
-      <c r="AO17" s="60">
-        <f>AO3+AO6+AO10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="AP17" s="60">
-        <f>AP3+AP6+AP10</f>
-        <v>736.71485399999995</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f>AO17+AP17</f>
-        <v>4126.8911289999996</v>
-      </c>
-      <c r="AR17" s="60">
-        <f>AR3+AR6+AR10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="AS17" s="60">
-        <f>AS3+AS6+AS10</f>
-        <v>736.71485399999995</v>
-      </c>
-      <c r="AT17" s="60">
-        <f>AR17+AS17</f>
-        <v>4126.8911289999996</v>
-      </c>
-      <c r="AU17" s="60">
-        <f>AU3+AU6+AU10</f>
-        <v>3390.1762750000007</v>
-      </c>
-      <c r="AV17" s="60">
-        <f>AV3+AV6+AV10</f>
-        <v>736.71485400000006</v>
-      </c>
-      <c r="AW17" s="60">
-        <f>AU17+AV17</f>
-        <v>4126.8911290000005</v>
-      </c>
-      <c r="AX17" s="60">
-        <f>AX3+AX6+AX10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="AY17" s="60">
-        <f>AY3+AY6+AY10</f>
-        <v>753.41993400000001</v>
-      </c>
-      <c r="AZ17" s="60">
-        <f>AX17+AY17</f>
-        <v>4143.5962089999994</v>
-      </c>
-      <c r="BA17" s="60">
-        <f>BA3+BA6+BA10</f>
-        <v>3390.1762750000003</v>
-      </c>
-      <c r="BB17" s="60">
-        <f>BB3+BB6+BB10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="BC17" s="60">
-        <f>BA17+BB17</f>
-        <v>4155.5962090000003</v>
-      </c>
-      <c r="BD17" s="60">
-        <f>BD3+BD6+BD10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="BE17" s="60">
-        <f>BE3+BE6+BE10</f>
-        <v>765.4199339999999</v>
-      </c>
-      <c r="BF17" s="60">
-        <f>BD17+BE17</f>
-        <v>4155.5962089999994</v>
-      </c>
-      <c r="BG17" s="60">
-        <f>BG3+BG6+BG10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="BH17" s="60">
-        <f>BH3+BH6+BH10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="BI17" s="60">
-        <f>BG17+BH17</f>
-        <v>4155.5962089999994</v>
-      </c>
-      <c r="BJ17" s="60">
-        <f>BJ3+BJ6+BJ10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="BK17" s="60">
-        <f>BK3+BK6+BK10</f>
-        <v>765.4199339999999</v>
-      </c>
-      <c r="BL17" s="60">
-        <f>BJ17+BK17</f>
-        <v>4155.5962089999994</v>
-      </c>
-      <c r="BM17" s="60">
-        <f>BM3+BM6+BM10</f>
-        <v>3390.1762749999998</v>
-      </c>
-      <c r="BN17" s="60">
-        <f>BN3+BN6+BN10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="BO17" s="16">
-        <f>BM17+BN17</f>
-        <v>4155.5962089999994</v>
       </c>
     </row>
   </sheetData>
@@ -12271,10 +11523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD45"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12287,111 +11539,111 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44287</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44291</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44292</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44293</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44294</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44295</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166">
         <v>44298</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166">
         <v>44299</v>
       </c>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163">
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166">
         <v>44300</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163">
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166">
         <v>44301</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166">
         <v>44302</v>
       </c>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163">
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166">
         <v>44305</v>
       </c>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166">
         <v>44306</v>
       </c>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163">
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166">
         <v>44307</v>
       </c>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163">
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166">
         <v>44308</v>
       </c>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163">
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166">
         <v>44309</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163">
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166">
         <v>44312</v>
       </c>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163">
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166">
         <v>44313</v>
       </c>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163">
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166">
         <v>44314</v>
       </c>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163">
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166">
         <v>44315</v>
       </c>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163">
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="166"/>
+      <c r="BJ1" s="166">
         <v>44316</v>
       </c>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
+      <c r="BK1" s="166"/>
+      <c r="BL1" s="166"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -14256,7 +13508,7 @@
         <v>351.52264500000001</v>
       </c>
       <c r="V10" s="67">
-        <f t="shared" ref="V10:V17" si="0">T10+U10</f>
+        <f t="shared" ref="V10:V16" si="0">T10+U10</f>
         <v>2152.0586519999997</v>
       </c>
       <c r="W10" s="67">
@@ -15718,279 +14970,21 @@
         <v>256.75871000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="60">
-        <f>B3+B6+B10</f>
-        <v>3405.350175</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C3+C6+C10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="D17" s="60">
-        <f>B17+C17</f>
-        <v>4170.770109</v>
-      </c>
-      <c r="E17" s="60">
-        <f>E3+E6+E10</f>
-        <v>3405.350175</v>
-      </c>
-      <c r="F17" s="60">
-        <f>F3+F6+F10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="G17" s="60">
-        <f>E17+F17</f>
-        <v>4170.770109</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H3+H6+H10</f>
-        <v>3404.3501749999996</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I3+I6+I10</f>
-        <v>765.41993400000001</v>
-      </c>
-      <c r="J17" s="60">
-        <f>H17+I17</f>
-        <v>4169.7701089999991</v>
-      </c>
-      <c r="K17" s="60">
-        <v>3404.3501750000005</v>
-      </c>
-      <c r="L17" s="60">
-        <f>L3+L6+L10</f>
-        <v>765.41993400000013</v>
-      </c>
-      <c r="M17" s="60">
-        <f>K17+L17</f>
-        <v>4169.770109000001</v>
-      </c>
-      <c r="N17" s="60">
-        <f>N3+N6+N10</f>
-        <v>3404.350175</v>
-      </c>
-      <c r="O17" s="60">
-        <f>O3+O6+O10</f>
-        <v>775.41993400000001</v>
-      </c>
-      <c r="P17" s="60">
-        <f>N17+O17</f>
-        <v>4179.770109</v>
-      </c>
-      <c r="Q17" s="60">
-        <f>Q3+Q6+Q10</f>
-        <v>3404.350175</v>
-      </c>
-      <c r="R17" s="60">
-        <f>R3+R6+R10</f>
-        <v>775.41993400000001</v>
-      </c>
-      <c r="S17" s="60">
-        <f>Q17+R17</f>
-        <v>4179.770109</v>
-      </c>
-      <c r="T17" s="60">
-        <f>T3+T6+T10</f>
-        <v>3404.3501749999996</v>
-      </c>
-      <c r="U17" s="60">
-        <f>U3+U6+U10</f>
-        <v>775.41993400000001</v>
-      </c>
-      <c r="V17" s="60">
-        <f t="shared" si="0"/>
-        <v>4179.7701089999991</v>
-      </c>
-      <c r="W17" s="60">
-        <f>W3+W6+W10</f>
-        <v>3404.3501749999996</v>
-      </c>
-      <c r="X17" s="60">
-        <f>X3+X6+X10</f>
-        <v>775.41993400000001</v>
-      </c>
-      <c r="Y17" s="60">
-        <f>W17+X17</f>
-        <v>4179.7701089999991</v>
-      </c>
-      <c r="Z17" s="60">
-        <f>Z3+Z6+Z10</f>
-        <v>3404.350175</v>
-      </c>
-      <c r="AA17" s="60">
-        <f>AA3+AA6+AA10</f>
-        <v>771.66993400000001</v>
-      </c>
-      <c r="AB17" s="60">
-        <f>Z17+AA17</f>
-        <v>4176.020109</v>
-      </c>
-      <c r="AC17" s="60">
-        <f>AC3+AC6+AC10</f>
-        <v>3434.3501749999996</v>
-      </c>
-      <c r="AD17" s="60">
-        <f>AD3+AD6+AD10</f>
-        <v>771.66993400000001</v>
-      </c>
-      <c r="AE17" s="60">
-        <f>AC17+AD17</f>
-        <v>4206.0201089999991</v>
-      </c>
-      <c r="AF17" s="60">
-        <f>AF3+AF6+AF10</f>
-        <v>3434.350175</v>
-      </c>
-      <c r="AG17" s="60">
-        <f>AG3+AG6+AG10</f>
-        <v>771.6699339999999</v>
-      </c>
-      <c r="AH17" s="60">
-        <f>AF17+AG17</f>
-        <v>4206.020109</v>
-      </c>
-      <c r="AI17" s="60">
-        <f>AI3+AI6+AI10</f>
-        <v>3434.3501750000005</v>
-      </c>
-      <c r="AJ17" s="60">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>771.66993400000001</v>
-      </c>
-      <c r="AK17" s="60">
-        <f>AI17+AJ17</f>
-        <v>4206.020109000001</v>
-      </c>
-      <c r="AL17" s="60">
-        <f>AL3+AL6+AL10</f>
-        <v>3433.6001750000005</v>
-      </c>
-      <c r="AM17" s="60">
-        <f>AM3+AM6+AM10</f>
-        <v>771.66993400000001</v>
-      </c>
-      <c r="AN17" s="60">
-        <f>AL17+AM17</f>
-        <v>4205.270109000001</v>
-      </c>
-      <c r="AO17" s="60">
-        <f>AO3+AO6+AO10</f>
-        <v>3433.600175</v>
-      </c>
-      <c r="AP17" s="60">
-        <f>AP3+AP6+AP10</f>
-        <v>771.66993400000001</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f>AO17+AP17</f>
-        <v>4205.270109</v>
-      </c>
-      <c r="AR17" s="60">
-        <f>AR3+AR6+AR10</f>
-        <v>3433.6001750000005</v>
-      </c>
-      <c r="AS17" s="60">
-        <f>AS3+AS6+AS10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="AT17" s="60">
-        <f>AR17+AS17</f>
-        <v>4215.270109000001</v>
-      </c>
-      <c r="AU17" s="60">
-        <f>AU3+AU6+AU10</f>
-        <v>3433.6001750000005</v>
-      </c>
-      <c r="AV17" s="60">
-        <f>AV3+AV6+AV10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="AW17" s="60">
-        <f>AU17+AV17</f>
-        <v>4215.270109000001</v>
-      </c>
-      <c r="AX17" s="60">
-        <f>AX3+AX6+AX10</f>
-        <v>3433.6001750000005</v>
-      </c>
-      <c r="AY17" s="60">
-        <f>AY3+AY6+AY10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="AZ17" s="60">
-        <f>AX17+AY17</f>
-        <v>4215.270109000001</v>
-      </c>
-      <c r="BA17" s="60">
-        <f>BA3+BA6+BA10</f>
-        <v>3433.600175</v>
-      </c>
-      <c r="BB17" s="60">
-        <f>BB3+BB6+BB10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="BC17" s="60">
-        <f>BA17+BB17</f>
-        <v>4215.270109</v>
-      </c>
-      <c r="BD17" s="60">
-        <f>BD3+BD6+BD10</f>
-        <v>3433.6001750000005</v>
-      </c>
-      <c r="BE17" s="60">
-        <f>BE3+BE6+BE10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="BF17" s="60">
-        <f>BD17+BE17</f>
-        <v>4215.270109000001</v>
-      </c>
-      <c r="BG17" s="60">
-        <f>BG3+BG6+BG10</f>
-        <v>3460.3801750000002</v>
-      </c>
-      <c r="BH17" s="60">
-        <f>BH3+BH6+BH10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="BI17" s="60">
-        <f>BG17+BH17</f>
-        <v>4242.0501089999998</v>
-      </c>
-      <c r="BJ17" s="60">
-        <f>BJ3+BJ6+BJ10</f>
-        <v>3460.3801750000002</v>
-      </c>
-      <c r="BK17" s="60">
-        <f>BK3+BK6+BK10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="BL17" s="60">
-        <f>BJ17+BK17</f>
-        <v>4242.0501089999998</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -15998,6 +14992,8 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16005,10 +15001,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1:BD1048576"/>
+      <selection activeCell="AF17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16022,91 +15018,91 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44319</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44320</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44321</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44322</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44323</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44326</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166">
         <v>44327</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166">
         <v>44333</v>
       </c>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163">
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166">
         <v>44334</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163">
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166">
         <v>44335</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166">
         <v>44336</v>
       </c>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163">
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166">
         <v>44337</v>
       </c>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166">
         <v>44340</v>
       </c>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163">
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166">
         <v>44341</v>
       </c>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163">
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166">
         <v>44343</v>
       </c>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163">
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166">
         <v>44344</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163">
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166">
         <v>44347</v>
       </c>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -18812,222 +17808,16 @@
         <v>287.22580900000003</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="60">
-        <f>B3+B6+B10</f>
-        <v>3460.3801750000002</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C3+C6+C10</f>
-        <v>781.66993400000013</v>
-      </c>
-      <c r="D17" s="60">
-        <f>B17+C17</f>
-        <v>4242.0501090000007</v>
-      </c>
-      <c r="E17" s="60">
-        <f>E3+E6+E10</f>
-        <v>3460.3801750000002</v>
-      </c>
-      <c r="F17" s="60">
-        <f>F3+F6+F10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="G17" s="60">
-        <f>E17+F17</f>
-        <v>4242.0501089999998</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H3+H6+H10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I3+I6+I10</f>
-        <v>781.66993400000001</v>
-      </c>
-      <c r="J17" s="60">
-        <f>H17+I17</f>
-        <v>4241.0501089999998</v>
-      </c>
-      <c r="K17" s="60">
-        <f>K3+K6+K10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="L17" s="60">
-        <f>L3+L6+L10</f>
-        <v>791.6699339999999</v>
-      </c>
-      <c r="M17" s="60">
-        <f>K17+L17</f>
-        <v>4251.0501089999998</v>
-      </c>
-      <c r="N17" s="60">
-        <f>N3+N6+N10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="O17" s="60">
-        <f>O3+O6+O10</f>
-        <v>791.6699339999999</v>
-      </c>
-      <c r="P17" s="60">
-        <f>N17+O17</f>
-        <v>4251.0501089999998</v>
-      </c>
-      <c r="Q17" s="60">
-        <f>Q3+Q6+Q10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="R17" s="60">
-        <f>R3+R6+R10</f>
-        <v>791.66993400000001</v>
-      </c>
-      <c r="S17" s="60">
-        <f>Q17+R17</f>
-        <v>4251.0501089999998</v>
-      </c>
-      <c r="T17" s="60">
-        <f>T3+T6+T10</f>
-        <v>3459.3801749999998</v>
-      </c>
-      <c r="U17" s="60">
-        <f>U3+U6+U10</f>
-        <v>791.41993400000001</v>
-      </c>
-      <c r="V17" s="60">
-        <f>T17+U17</f>
-        <v>4250.8001089999998</v>
-      </c>
-      <c r="W17" s="60">
-        <f>W3+W6+W10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="X17" s="60">
-        <f>X3+X6+X10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="Y17" s="60">
-        <f>W17+X17</f>
-        <v>4175.7922520000002</v>
-      </c>
-      <c r="Z17" s="60">
-        <f>Z3+Z6+Z10</f>
-        <v>3459.3801750000002</v>
-      </c>
-      <c r="AA17" s="60">
-        <f>AA3+AA6+AA10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AB17" s="60">
-        <f>Z17+AA17</f>
-        <v>4175.7922520000002</v>
-      </c>
-      <c r="AC17" s="60">
-        <f>AC3+AC6+AC10</f>
-        <v>3458.3801750000002</v>
-      </c>
-      <c r="AD17" s="60">
-        <f>AD3+AD6+AD10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AE17" s="60">
-        <f>AC17+AD17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AF17" s="60">
-        <f>AF3+AF6+AF10</f>
-        <v>3458.3801749999998</v>
-      </c>
-      <c r="AG17" s="60">
-        <f>AG3+AG6+AG10</f>
-        <v>716.41207700000007</v>
-      </c>
-      <c r="AH17" s="60">
-        <f>AF17+AG17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AI17" s="60">
-        <f>AI3+AI6+AI10</f>
-        <v>3458.3801750000002</v>
-      </c>
-      <c r="AJ17" s="60">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AK17" s="60">
-        <f>AI17+AJ17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AL17" s="60">
-        <f>AL3+AL6+AL10</f>
-        <v>3458.3801750000002</v>
-      </c>
-      <c r="AM17" s="60">
-        <f>AM3+AM6+AM10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AN17" s="60">
-        <f>AL17+AM17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AO17" s="60">
-        <f>AO3+AO6+AO10</f>
-        <v>3458.3801750000002</v>
-      </c>
-      <c r="AP17" s="60">
-        <f>AP3+AP6+AP10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f>AO17+AP17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AR17" s="60">
-        <f>AR3+AR6+AR10</f>
-        <v>3458.3801750000002</v>
-      </c>
-      <c r="AS17" s="60">
-        <f>AS3+AS6+AS10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AT17" s="60">
-        <f>AR17+AS17</f>
-        <v>4174.7922520000002</v>
-      </c>
-      <c r="AU17" s="60">
-        <f>AU3+AU6+AU10</f>
-        <v>3490.9301750000004</v>
-      </c>
-      <c r="AV17" s="60">
-        <f>AV3+AV6+AV10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AW17" s="60">
-        <f>AU17+AV17</f>
-        <v>4207.3422520000004</v>
-      </c>
-      <c r="AX17" s="60">
-        <f>AX3+AX6+AX10</f>
-        <v>3490.930175</v>
-      </c>
-      <c r="AY17" s="60">
-        <f>AY3+AY6+AY10</f>
-        <v>716.41207699999995</v>
-      </c>
-      <c r="AZ17" s="60">
-        <f>AX17+AY17</f>
-        <v>4207.3422520000004</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="Z1:AB1"/>
@@ -19035,12 +17825,9 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19048,10 +17835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19066,111 +17853,111 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44349</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44350</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44351</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44354</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44355</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44356</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166">
         <v>44357</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166">
         <v>44358</v>
       </c>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163">
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166">
         <v>44361</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163">
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166">
         <v>44362</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166">
         <v>44363</v>
       </c>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163">
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166">
         <v>44364</v>
       </c>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166">
         <v>44365</v>
       </c>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163">
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166">
         <v>44368</v>
       </c>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163">
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166">
         <v>44369</v>
       </c>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163">
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166">
         <v>44370</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163">
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166">
         <v>44371</v>
       </c>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163">
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166">
         <v>44372</v>
       </c>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163">
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166">
         <v>44375</v>
       </c>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163">
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166">
         <v>44376</v>
       </c>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163">
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="166"/>
+      <c r="BJ1" s="166">
         <v>44377</v>
       </c>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
+      <c r="BK1" s="166"/>
+      <c r="BL1" s="166"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -20966,7 +19753,7 @@
         <v>338.18213500000002</v>
       </c>
       <c r="D10" s="67">
-        <f t="shared" ref="D10:D17" si="0">B10+C10</f>
+        <f t="shared" ref="D10:D16" si="0">B10+C10</f>
         <v>2176.9598829999995</v>
       </c>
       <c r="E10" s="67">
@@ -20978,7 +19765,7 @@
         <v>338.385761</v>
       </c>
       <c r="G10" s="67">
-        <f t="shared" ref="G10:G17" si="1">E10+F10</f>
+        <f t="shared" ref="G10:G16" si="1">E10+F10</f>
         <v>2181.6414279999999</v>
       </c>
       <c r="H10" s="67">
@@ -20990,7 +19777,7 @@
         <v>341.99490000000003</v>
       </c>
       <c r="J10" s="67">
-        <f t="shared" ref="J10:J17" si="2">H10+I10</f>
+        <f t="shared" ref="J10:J16" si="2">H10+I10</f>
         <v>2189.018145</v>
       </c>
       <c r="K10" s="67">
@@ -21002,7 +19789,7 @@
         <v>342.20927899999998</v>
       </c>
       <c r="M10" s="67">
-        <f t="shared" ref="M10:M17" si="3">K10+L10</f>
+        <f t="shared" ref="M10:M16" si="3">K10+L10</f>
         <v>2197.4734749999998</v>
       </c>
       <c r="N10" s="67">
@@ -21014,7 +19801,7 @@
         <v>342.52821099999994</v>
       </c>
       <c r="P10" s="67">
-        <f t="shared" ref="P10:P17" si="4">N10+O10</f>
+        <f t="shared" ref="P10:P16" si="4">N10+O10</f>
         <v>2198.6803059999997</v>
       </c>
       <c r="Q10" s="67">
@@ -21026,7 +19813,7 @@
         <v>342.70321099999995</v>
       </c>
       <c r="S10" s="67">
-        <f t="shared" ref="S10:S17" si="5">Q10+R10</f>
+        <f t="shared" ref="S10:S16" si="5">Q10+R10</f>
         <v>2200.127465</v>
       </c>
       <c r="T10" s="67">
@@ -21038,7 +19825,7 @@
         <v>342.95939399999997</v>
       </c>
       <c r="V10" s="67">
-        <f t="shared" ref="V10:V17" si="6">T10+U10</f>
+        <f t="shared" ref="V10:V16" si="6">T10+U10</f>
         <v>2208.8273829999998</v>
       </c>
       <c r="W10" s="67">
@@ -21050,7 +19837,7 @@
         <v>342.80364700000001</v>
       </c>
       <c r="Y10" s="67">
-        <f t="shared" ref="Y10:Y17" si="7">W10+X10</f>
+        <f t="shared" ref="Y10:Y16" si="7">W10+X10</f>
         <v>2210.8504360000002</v>
       </c>
       <c r="Z10" s="67">
@@ -21062,7 +19849,7 @@
         <v>341.22800399999994</v>
       </c>
       <c r="AB10" s="67">
-        <f t="shared" ref="AB10:AB17" si="8">Z10+AA10</f>
+        <f t="shared" ref="AB10:AB16" si="8">Z10+AA10</f>
         <v>2210.7816130000001</v>
       </c>
       <c r="AC10" s="67">
@@ -21074,7 +19861,7 @@
         <v>340.347262</v>
       </c>
       <c r="AE10" s="67">
-        <f t="shared" ref="AE10:AE17" si="9">AC10+AD10</f>
+        <f t="shared" ref="AE10:AE16" si="9">AC10+AD10</f>
         <v>2201.4055020000001</v>
       </c>
       <c r="AF10" s="67">
@@ -21086,7 +19873,7 @@
         <v>340.66751299999999</v>
       </c>
       <c r="AH10" s="67">
-        <f t="shared" ref="AH10:AH17" si="10">AF10+AG10</f>
+        <f t="shared" ref="AH10:AH16" si="10">AF10+AG10</f>
         <v>2202.3295980000003</v>
       </c>
       <c r="AI10" s="67">
@@ -21098,7 +19885,7 @@
         <v>342.13890900000001</v>
       </c>
       <c r="AK10" s="67">
-        <f t="shared" ref="AK10:AK17" si="11">AI10+AJ10</f>
+        <f t="shared" ref="AK10:AK16" si="11">AI10+AJ10</f>
         <v>2203.1590759999999</v>
       </c>
       <c r="AL10" s="67">
@@ -21110,7 +19897,7 @@
         <v>341.00551899999994</v>
       </c>
       <c r="AN10" s="67">
-        <f t="shared" ref="AN10:AN17" si="12">AL10+AM10</f>
+        <f t="shared" ref="AN10:AN16" si="12">AL10+AM10</f>
         <v>2201.275521</v>
       </c>
       <c r="AO10" s="67">
@@ -21122,7 +19909,7 @@
         <v>340.58931899999999</v>
       </c>
       <c r="AQ10" s="67">
-        <f t="shared" ref="AQ10:AQ17" si="13">AO10+AP10</f>
+        <f t="shared" ref="AQ10:AQ16" si="13">AO10+AP10</f>
         <v>2198.3282220000001</v>
       </c>
       <c r="AR10" s="67">
@@ -21134,7 +19921,7 @@
         <v>340.942924</v>
       </c>
       <c r="AT10" s="67">
-        <f t="shared" ref="AT10:AT17" si="14">AR10+AS10</f>
+        <f t="shared" ref="AT10:AT16" si="14">AR10+AS10</f>
         <v>2197.1162610000001</v>
       </c>
       <c r="AU10" s="67">
@@ -21146,7 +19933,7 @@
         <v>340.586409</v>
       </c>
       <c r="AW10" s="67">
-        <f t="shared" ref="AW10:AW17" si="15">AU10+AV10</f>
+        <f t="shared" ref="AW10:AW16" si="15">AU10+AV10</f>
         <v>2195.810309</v>
       </c>
       <c r="AX10" s="67">
@@ -21158,7 +19945,7 @@
         <v>340.54209900000001</v>
       </c>
       <c r="AZ10" s="67">
-        <f t="shared" ref="AZ10:AZ17" si="16">AX10+AY10</f>
+        <f t="shared" ref="AZ10:AZ16" si="16">AX10+AY10</f>
         <v>2203.9721300000001</v>
       </c>
       <c r="BA10" s="67">
@@ -21170,7 +19957,7 @@
         <v>339.57070199999998</v>
       </c>
       <c r="BC10" s="67">
-        <f t="shared" ref="BC10:BC17" si="17">BA10+BB10</f>
+        <f t="shared" ref="BC10:BC16" si="17">BA10+BB10</f>
         <v>2208.8829620000001</v>
       </c>
       <c r="BD10" s="67">
@@ -21182,7 +19969,7 @@
         <v>339.90263800000002</v>
       </c>
       <c r="BF10" s="67">
-        <f t="shared" ref="BF10:BF17" si="18">BD10+BE10</f>
+        <f t="shared" ref="BF10:BF16" si="18">BD10+BE10</f>
         <v>2211.2906489999996</v>
       </c>
       <c r="BG10" s="67">
@@ -21194,7 +19981,7 @@
         <v>339.7165</v>
       </c>
       <c r="BI10" s="67">
-        <f t="shared" ref="BI10:BI17" si="19">BG10+BH10</f>
+        <f t="shared" ref="BI10:BI16" si="19">BG10+BH10</f>
         <v>2212.7603879999997</v>
       </c>
       <c r="BJ10" s="67">
@@ -21206,7 +19993,7 @@
         <v>340.81705099999999</v>
       </c>
       <c r="BL10" s="67">
-        <f t="shared" ref="BL10:BL17" si="20">BJ10+BK10</f>
+        <f t="shared" ref="BL10:BL16" si="20">BJ10+BK10</f>
         <v>2212.6916570000003</v>
       </c>
     </row>
@@ -22498,263 +21285,6 @@
       <c r="BL16" s="63">
         <f t="shared" si="20"/>
         <v>297.705872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="60">
-        <f>B3+B6+B10</f>
-        <v>3490.9301749999995</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C3+C6+C10</f>
-        <v>719.41207699999995</v>
-      </c>
-      <c r="D17" s="60">
-        <f t="shared" si="0"/>
-        <v>4210.3422519999995</v>
-      </c>
-      <c r="E17" s="60">
-        <f>E3+E6+E10</f>
-        <v>3489.180175</v>
-      </c>
-      <c r="F17" s="60">
-        <f>F3+F6+F10</f>
-        <v>719.41207699999995</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" si="1"/>
-        <v>4208.5922520000004</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H3+H6+H10</f>
-        <v>3489.1801750000004</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I3+I6+I10</f>
-        <v>730.41207700000007</v>
-      </c>
-      <c r="J17" s="60">
-        <f t="shared" si="2"/>
-        <v>4219.5922520000004</v>
-      </c>
-      <c r="K17" s="60">
-        <f>K3+K6+K10</f>
-        <v>3495.1801749999995</v>
-      </c>
-      <c r="L17" s="60">
-        <f>L3+L6+L10</f>
-        <v>730.41207699999995</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>4225.5922519999995</v>
-      </c>
-      <c r="N17" s="60">
-        <f>N3+N6+N10</f>
-        <v>3495.1801749999995</v>
-      </c>
-      <c r="O17" s="60">
-        <f>O3+O6+O10</f>
-        <v>730.41184899999985</v>
-      </c>
-      <c r="P17" s="60">
-        <f t="shared" si="4"/>
-        <v>4225.5920239999996</v>
-      </c>
-      <c r="Q17" s="60">
-        <f>Q3+Q6+Q10</f>
-        <v>3495.180175</v>
-      </c>
-      <c r="R17" s="60">
-        <f>R3+R6+R10</f>
-        <v>730.17157999999995</v>
-      </c>
-      <c r="S17" s="60">
-        <f t="shared" si="5"/>
-        <v>4225.3517549999997</v>
-      </c>
-      <c r="T17" s="60">
-        <f>T3+T6+T10</f>
-        <v>3529.180175</v>
-      </c>
-      <c r="U17" s="60">
-        <f>U3+U6+U10</f>
-        <v>730.17207699999994</v>
-      </c>
-      <c r="V17" s="60">
-        <f t="shared" si="6"/>
-        <v>4259.3522519999997</v>
-      </c>
-      <c r="W17" s="60">
-        <f>W3+W6+W10</f>
-        <v>3529.180175</v>
-      </c>
-      <c r="X17" s="60">
-        <f>X3+X6+X10</f>
-        <v>730.17207699999994</v>
-      </c>
-      <c r="Y17" s="60">
-        <f t="shared" si="7"/>
-        <v>4259.3522519999997</v>
-      </c>
-      <c r="Z17" s="60">
-        <f>Z3+Z6+Z10</f>
-        <v>3529.180175</v>
-      </c>
-      <c r="AA17" s="60">
-        <f>AA3+AA6+AA10</f>
-        <v>730.17207699999994</v>
-      </c>
-      <c r="AB17" s="60">
-        <f t="shared" si="8"/>
-        <v>4259.3522519999997</v>
-      </c>
-      <c r="AC17" s="60">
-        <f>AC3+AC6+AC10</f>
-        <v>3513.4507750000002</v>
-      </c>
-      <c r="AD17" s="60">
-        <f>AD3+AD6+AD10</f>
-        <v>730.17207699999994</v>
-      </c>
-      <c r="AE17" s="60">
-        <f t="shared" si="9"/>
-        <v>4243.6228520000004</v>
-      </c>
-      <c r="AF17" s="60">
-        <f>AF3+AF6+AF10</f>
-        <v>3512.4507750000002</v>
-      </c>
-      <c r="AG17" s="60">
-        <f>AG3+AG6+AG10</f>
-        <v>730.17207699999994</v>
-      </c>
-      <c r="AH17" s="60">
-        <f t="shared" si="10"/>
-        <v>4242.6228520000004</v>
-      </c>
-      <c r="AI17" s="60">
-        <f>AI3+AI6+AI10</f>
-        <v>3512.4507749999998</v>
-      </c>
-      <c r="AJ17" s="60">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>740.17207700000006</v>
-      </c>
-      <c r="AK17" s="60">
-        <f t="shared" si="11"/>
-        <v>4252.6228519999995</v>
-      </c>
-      <c r="AL17" s="60">
-        <f>AL3+AL6+AL10</f>
-        <v>3512.4507750000002</v>
-      </c>
-      <c r="AM17" s="60">
-        <f>AM3+AM6+AM10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="AN17" s="60">
-        <f t="shared" si="12"/>
-        <v>4252.6228520000004</v>
-      </c>
-      <c r="AO17" s="60">
-        <f>AO3+AO6+AO10</f>
-        <v>3512.4507750000002</v>
-      </c>
-      <c r="AP17" s="60">
-        <f>AP3+AP6+AP10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f t="shared" si="13"/>
-        <v>4252.6228520000004</v>
-      </c>
-      <c r="AR17" s="60">
-        <f>AR3+AR6+AR10</f>
-        <v>3512.4507750000002</v>
-      </c>
-      <c r="AS17" s="60">
-        <f>AS3+AS6+AS10</f>
-        <v>740.17207700000006</v>
-      </c>
-      <c r="AT17" s="60">
-        <f t="shared" si="14"/>
-        <v>4252.6228520000004</v>
-      </c>
-      <c r="AU17" s="60">
-        <f>AU3+AU6+AU10</f>
-        <v>3512.4507749999998</v>
-      </c>
-      <c r="AV17" s="60">
-        <f>AV3+AV6+AV10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="AW17" s="60">
-        <f t="shared" si="15"/>
-        <v>4252.6228519999995</v>
-      </c>
-      <c r="AX17" s="60">
-        <f>AX3+AX6+AX10</f>
-        <v>3542.4507749999998</v>
-      </c>
-      <c r="AY17" s="60">
-        <f>AY3+AY6+AY10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="AZ17" s="60">
-        <f t="shared" si="16"/>
-        <v>4282.6228519999995</v>
-      </c>
-      <c r="BA17" s="60">
-        <f>BA3+BA6+BA10</f>
-        <v>3542.4507750000002</v>
-      </c>
-      <c r="BB17" s="60">
-        <f>BB3+BB6+BB10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="BC17" s="60">
-        <f t="shared" si="17"/>
-        <v>4282.6228520000004</v>
-      </c>
-      <c r="BD17" s="60">
-        <f>BD3+BD6+BD10</f>
-        <v>3542.4507749999998</v>
-      </c>
-      <c r="BE17" s="60">
-        <f>BE3+BE6+BE10</f>
-        <v>740.17207700000006</v>
-      </c>
-      <c r="BF17" s="60">
-        <f t="shared" si="18"/>
-        <v>4282.6228519999995</v>
-      </c>
-      <c r="BG17" s="60">
-        <f>BG3+BG6+BG10</f>
-        <v>3542.4507750000002</v>
-      </c>
-      <c r="BH17" s="60">
-        <f>BH3+BH6+BH10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="BI17" s="60">
-        <f t="shared" si="19"/>
-        <v>4282.6228520000004</v>
-      </c>
-      <c r="BJ17" s="60">
-        <f>BJ3+BJ6+BJ10</f>
-        <v>3542.4507750000002</v>
-      </c>
-      <c r="BK17" s="60">
-        <f>BK3+BK6+BK10</f>
-        <v>740.17207699999994</v>
-      </c>
-      <c r="BL17" s="60">
-        <f t="shared" si="20"/>
-        <v>4282.6228520000004</v>
       </c>
     </row>
   </sheetData>
@@ -22764,6 +21294,11 @@
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="T1:V1"/>
@@ -22775,12 +21310,7 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22788,10 +21318,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22804,111 +21334,111 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44378</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44379</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44382</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44383</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166">
         <v>44384</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166">
         <v>44385</v>
       </c>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166">
         <v>44386</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163">
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166">
         <v>44389</v>
       </c>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163">
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166">
         <v>44390</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163">
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166">
         <v>44391</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166">
         <v>44392</v>
       </c>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163">
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166">
         <v>44393</v>
       </c>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166">
         <v>44396</v>
       </c>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163">
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166">
         <v>44398</v>
       </c>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163">
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166">
         <v>44399</v>
       </c>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163">
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166">
         <v>44400</v>
       </c>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163">
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="166">
         <v>44403</v>
       </c>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163">
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166">
         <v>44404</v>
       </c>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163">
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166"/>
+      <c r="BD1" s="166">
         <v>44405</v>
       </c>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163">
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166">
         <v>44406</v>
       </c>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163">
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="166"/>
+      <c r="BJ1" s="166">
         <v>44407</v>
       </c>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
+      <c r="BK1" s="166"/>
+      <c r="BL1" s="166"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -24704,7 +23234,7 @@
         <v>344.03488600000003</v>
       </c>
       <c r="D10" s="67">
-        <f t="shared" ref="D10:D17" si="0">B10+C10</f>
+        <f t="shared" ref="D10:D16" si="0">B10+C10</f>
         <v>2214.805304</v>
       </c>
       <c r="E10" s="67">
@@ -24716,7 +23246,7 @@
         <v>345.41485999999998</v>
       </c>
       <c r="G10" s="67">
-        <f t="shared" ref="G10:G17" si="1">E10+F10</f>
+        <f t="shared" ref="G10:G16" si="1">E10+F10</f>
         <v>2214.5108450000002</v>
       </c>
       <c r="H10" s="67">
@@ -24728,7 +23258,7 @@
         <v>345.38342499999999</v>
       </c>
       <c r="J10" s="67">
-        <f t="shared" ref="J10:J17" si="2">H10+I10</f>
+        <f t="shared" ref="J10:J16" si="2">H10+I10</f>
         <v>2214.1100200000001</v>
       </c>
       <c r="K10" s="67">
@@ -24740,7 +23270,7 @@
         <v>345.356044</v>
       </c>
       <c r="M10" s="67">
-        <f t="shared" ref="M10:M17" si="3">K10+L10</f>
+        <f t="shared" ref="M10:M16" si="3">K10+L10</f>
         <v>2213.469055</v>
       </c>
       <c r="N10" s="67">
@@ -24752,7 +23282,7 @@
         <v>345.48841499999997</v>
       </c>
       <c r="P10" s="67">
-        <f t="shared" ref="P10:P17" si="4">N10+O10</f>
+        <f t="shared" ref="P10:P16" si="4">N10+O10</f>
         <v>2214.77196</v>
       </c>
       <c r="Q10" s="67">
@@ -24764,7 +23294,7 @@
         <v>345.12634000000003</v>
       </c>
       <c r="S10" s="67">
-        <f t="shared" ref="S10:S17" si="5">Q10+R10</f>
+        <f t="shared" ref="S10:S16" si="5">Q10+R10</f>
         <v>2223.7410959999997</v>
       </c>
       <c r="T10" s="67">
@@ -24776,7 +23306,7 @@
         <v>344.95042000000001</v>
       </c>
       <c r="V10" s="67">
-        <f t="shared" ref="V10:V17" si="6">T10+U10</f>
+        <f t="shared" ref="V10:V16" si="6">T10+U10</f>
         <v>2224.8788170000003</v>
       </c>
       <c r="W10" s="67">
@@ -24788,7 +23318,7 @@
         <v>344.96662000000003</v>
       </c>
       <c r="Y10" s="67">
-        <f t="shared" ref="Y10:Y17" si="7">W10+X10</f>
+        <f t="shared" ref="Y10:Y16" si="7">W10+X10</f>
         <v>2224.1848010000003</v>
       </c>
       <c r="Z10" s="67">
@@ -24800,7 +23330,7 @@
         <v>344.97044299999999</v>
       </c>
       <c r="AB10" s="67">
-        <f t="shared" ref="AB10:AB17" si="8">Z10+AA10</f>
+        <f t="shared" ref="AB10:AB16" si="8">Z10+AA10</f>
         <v>2224.6153610000001</v>
       </c>
       <c r="AC10" s="67">
@@ -24812,7 +23342,7 @@
         <v>344.91950199999997</v>
       </c>
       <c r="AE10" s="67">
-        <f t="shared" ref="AE10:AE17" si="9">AC10+AD10</f>
+        <f t="shared" ref="AE10:AE16" si="9">AC10+AD10</f>
         <v>2224.9142790000001</v>
       </c>
       <c r="AF10" s="67">
@@ -24824,7 +23354,7 @@
         <v>348.20808599999998</v>
       </c>
       <c r="AH10" s="67">
-        <f t="shared" ref="AH10:AH17" si="10">AF10+AG10</f>
+        <f t="shared" ref="AH10:AH16" si="10">AF10+AG10</f>
         <v>2201.1401949999999</v>
       </c>
       <c r="AI10" s="67">
@@ -24836,7 +23366,7 @@
         <v>349.53280699999999</v>
       </c>
       <c r="AK10" s="67">
-        <f t="shared" ref="AK10:AK17" si="11">AI10+AJ10</f>
+        <f t="shared" ref="AK10:AK16" si="11">AI10+AJ10</f>
         <v>2204.5250970000002</v>
       </c>
       <c r="AL10" s="67">
@@ -24848,7 +23378,7 @@
         <v>350.054911</v>
       </c>
       <c r="AN10" s="67">
-        <f t="shared" ref="AN10:AN17" si="12">AL10+AM10</f>
+        <f t="shared" ref="AN10:AN16" si="12">AL10+AM10</f>
         <v>2204.9078630000004</v>
       </c>
       <c r="AO10" s="67">
@@ -24860,7 +23390,7 @@
         <v>349.84167100000002</v>
       </c>
       <c r="AQ10" s="67">
-        <f t="shared" ref="AQ10:AQ17" si="13">AO10+AP10</f>
+        <f t="shared" ref="AQ10:AQ16" si="13">AO10+AP10</f>
         <v>2202.3299240000001</v>
       </c>
       <c r="AR10" s="67">
@@ -24872,7 +23402,7 @@
         <v>349.61795100000001</v>
       </c>
       <c r="AT10" s="67">
-        <f t="shared" ref="AT10:AT17" si="14">AR10+AS10</f>
+        <f t="shared" ref="AT10:AT16" si="14">AR10+AS10</f>
         <v>2203.8287230000001</v>
       </c>
       <c r="AU10" s="67">
@@ -24884,7 +23414,7 @@
         <v>349.17084800000003</v>
       </c>
       <c r="AW10" s="67">
-        <f t="shared" ref="AW10:AW17" si="15">AU10+AV10</f>
+        <f t="shared" ref="AW10:AW16" si="15">AU10+AV10</f>
         <v>2218.1629380000004</v>
       </c>
       <c r="AX10" s="67">
@@ -24896,7 +23426,7 @@
         <v>349.18823300000003</v>
       </c>
       <c r="AZ10" s="67">
-        <f t="shared" ref="AZ10:AZ17" si="16">AX10+AY10</f>
+        <f t="shared" ref="AZ10:AZ16" si="16">AX10+AY10</f>
         <v>2220.2483580000003</v>
       </c>
       <c r="BA10" s="67">
@@ -24908,7 +23438,7 @@
         <v>349.34540100000004</v>
       </c>
       <c r="BC10" s="67">
-        <f t="shared" ref="BC10:BC17" si="17">BA10+BB10</f>
+        <f t="shared" ref="BC10:BC16" si="17">BA10+BB10</f>
         <v>2225.9902489999999</v>
       </c>
       <c r="BD10" s="67">
@@ -24920,7 +23450,7 @@
         <v>349.13270599999998</v>
       </c>
       <c r="BF10" s="67">
-        <f t="shared" ref="BF10:BF17" si="18">BD10+BE10</f>
+        <f t="shared" ref="BF10:BF16" si="18">BD10+BE10</f>
         <v>2224.5948859999999</v>
       </c>
       <c r="BG10" s="67">
@@ -24932,7 +23462,7 @@
         <v>352.22373199999998</v>
       </c>
       <c r="BI10" s="67">
-        <f t="shared" ref="BI10:BI17" si="19">BG10+BH10</f>
+        <f t="shared" ref="BI10:BI16" si="19">BG10+BH10</f>
         <v>2228.3843630000001</v>
       </c>
       <c r="BJ10" s="67">
@@ -24944,7 +23474,7 @@
         <v>352.30010700000003</v>
       </c>
       <c r="BL10" s="67">
-        <f t="shared" ref="BL10:BL17" si="20">BJ10+BK10</f>
+        <f t="shared" ref="BL10:BL16" si="20">BJ10+BK10</f>
         <v>2229.1802990000001</v>
       </c>
     </row>
@@ -26238,277 +24768,14 @@
         <v>303.01239399999997</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="60">
-        <f>B3+B6+B10</f>
-        <v>3537.5107750000002</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C3+C6+C10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="D17" s="60">
-        <f t="shared" si="0"/>
-        <v>4290.1828519999999</v>
-      </c>
-      <c r="E17" s="60">
-        <f>E3+E6+E10</f>
-        <v>3537.5107749999997</v>
-      </c>
-      <c r="F17" s="60">
-        <f>F3+F6+F10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" si="1"/>
-        <v>4290.1828519999999</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H3+H6+H10</f>
-        <v>3537.5107750000002</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I3+I6+I10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="J17" s="60">
-        <f t="shared" si="2"/>
-        <v>4290.1828519999999</v>
-      </c>
-      <c r="K17" s="60">
-        <f>K3+K6+K10</f>
-        <v>3537.5107750000002</v>
-      </c>
-      <c r="L17" s="60">
-        <f>L3+L6+L10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>4290.1828519999999</v>
-      </c>
-      <c r="N17" s="60">
-        <f>N3+N6+N10</f>
-        <v>3537.5107749999997</v>
-      </c>
-      <c r="O17" s="60">
-        <f>O3+O6+O10</f>
-        <v>752.67207699999994</v>
-      </c>
-      <c r="P17" s="60">
-        <f t="shared" si="4"/>
-        <v>4290.1828519999999</v>
-      </c>
-      <c r="Q17" s="60">
-        <f>Q3+Q6+Q10</f>
-        <v>3571.5107749999997</v>
-      </c>
-      <c r="R17" s="60">
-        <f>R3+R6+R10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="S17" s="60">
-        <f t="shared" si="5"/>
-        <v>4324.1828519999999</v>
-      </c>
-      <c r="T17" s="60">
-        <f>T3+T6+T10</f>
-        <v>3571.5107750000002</v>
-      </c>
-      <c r="U17" s="60">
-        <f>U3+U6+U10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="V17" s="60">
-        <f t="shared" si="6"/>
-        <v>4324.1828519999999</v>
-      </c>
-      <c r="W17" s="60">
-        <f>W3+W6+W10</f>
-        <v>3571.5107750000002</v>
-      </c>
-      <c r="X17" s="60">
-        <f>X3+X6+X10</f>
-        <v>752.67207700000006</v>
-      </c>
-      <c r="Y17" s="60">
-        <f t="shared" si="7"/>
-        <v>4324.1828519999999</v>
-      </c>
-      <c r="Z17" s="60">
-        <f>Z3+Z6+Z10</f>
-        <v>3571.5107749999997</v>
-      </c>
-      <c r="AA17" s="60">
-        <f>AA3+AA6+AA10</f>
-        <v>750.87207699999999</v>
-      </c>
-      <c r="AB17" s="60">
-        <f t="shared" si="8"/>
-        <v>4322.3828519999997</v>
-      </c>
-      <c r="AC17" s="60">
-        <f>AC3+AC6+AC10</f>
-        <v>3570.1707750000005</v>
-      </c>
-      <c r="AD17" s="60">
-        <f>AD3+AD6+AD10</f>
-        <v>750.87207699999999</v>
-      </c>
-      <c r="AE17" s="60">
-        <f t="shared" si="9"/>
-        <v>4321.0428520000005</v>
-      </c>
-      <c r="AF17" s="60">
-        <f>AF3+AF6+AF10</f>
-        <v>3471.6329820000001</v>
-      </c>
-      <c r="AG17" s="60">
-        <f>AG3+AG6+AG10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AH17" s="60">
-        <f t="shared" si="10"/>
-        <v>4235.0050590000001</v>
-      </c>
-      <c r="AI17" s="60">
-        <f>AI3+AI6+AI10</f>
-        <v>3471.6329820000001</v>
-      </c>
-      <c r="AJ17" s="60">
-        <f>AJ3+AJ6+AJ10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AK17" s="60">
-        <f t="shared" si="11"/>
-        <v>4235.0050590000001</v>
-      </c>
-      <c r="AL17" s="60">
-        <f>AL3+AL6+AL10</f>
-        <v>3471.6329820000001</v>
-      </c>
-      <c r="AM17" s="60">
-        <f>AM3+AM6+AM10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AN17" s="60">
-        <f t="shared" si="12"/>
-        <v>4235.0050590000001</v>
-      </c>
-      <c r="AO17" s="60">
-        <f>AO3+AO6+AO10</f>
-        <v>3471.6329820000001</v>
-      </c>
-      <c r="AP17" s="60">
-        <f>AP3+AP6+AP10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AQ17" s="60">
-        <f t="shared" si="13"/>
-        <v>4235.0050590000001</v>
-      </c>
-      <c r="AR17" s="60">
-        <f>AR3+AR6+AR10</f>
-        <v>3471.6329820000001</v>
-      </c>
-      <c r="AS17" s="60">
-        <f>AS3+AS6+AS10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AT17" s="60">
-        <f t="shared" si="14"/>
-        <v>4235.0050590000001</v>
-      </c>
-      <c r="AU17" s="60">
-        <f>AU3+AU6+AU10</f>
-        <v>3505.6329820000001</v>
-      </c>
-      <c r="AV17" s="60">
-        <f>AV3+AV6+AV10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AW17" s="60">
-        <f t="shared" si="15"/>
-        <v>4269.0050590000001</v>
-      </c>
-      <c r="AX17" s="60">
-        <f>AX3+AX6+AX10</f>
-        <v>3505.6329820000001</v>
-      </c>
-      <c r="AY17" s="60">
-        <f>AY3+AY6+AY10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="AZ17" s="60">
-        <f t="shared" si="16"/>
-        <v>4269.0050590000001</v>
-      </c>
-      <c r="BA17" s="60">
-        <f>BA3+BA6+BA10</f>
-        <v>3511.6329820000001</v>
-      </c>
-      <c r="BB17" s="60">
-        <f>BB3+BB6+BB10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="BC17" s="60">
-        <f t="shared" si="17"/>
-        <v>4275.0050590000001</v>
-      </c>
-      <c r="BD17" s="60">
-        <f>BD3+BD6+BD10</f>
-        <v>3510.6329819999992</v>
-      </c>
-      <c r="BE17" s="60">
-        <f>BE3+BE6+BE10</f>
-        <v>763.37207699999999</v>
-      </c>
-      <c r="BF17" s="60">
-        <f t="shared" si="18"/>
-        <v>4274.0050589999992</v>
-      </c>
-      <c r="BG17" s="60">
-        <f>BG3+BG6+BG10</f>
-        <v>3510.6329820000001</v>
-      </c>
-      <c r="BH17" s="60">
-        <f>BH3+BH6+BH10</f>
-        <v>776.52207699999997</v>
-      </c>
-      <c r="BI17" s="60">
-        <f t="shared" si="19"/>
-        <v>4287.1550589999997</v>
-      </c>
-      <c r="BJ17" s="60">
-        <f>BJ3+BJ6+BJ10</f>
-        <v>3510.6329820000001</v>
-      </c>
-      <c r="BK17" s="60">
-        <f>BK3+BK6+BK10</f>
-        <v>776.52207699999997</v>
-      </c>
-      <c r="BL17" s="60">
-        <f t="shared" si="20"/>
-        <v>4287.1550589999997</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:A2"/>
@@ -26519,6 +24786,12 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26526,15 +24799,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.1796875" style="13" customWidth="1"/>
     <col min="2" max="13" width="12" style="13" customWidth="1"/>
     <col min="15" max="16384" width="9.1796875" style="13"/>
   </cols>
@@ -26543,26 +24816,26 @@
       <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163">
+      <c r="B1" s="166">
         <v>44410</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166">
         <v>44411</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166">
         <v>44412</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163">
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166">
         <v>44413</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="167"/>
@@ -26797,7 +25070,7 @@
         <v>663.48146199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -26945,7 +25218,7 @@
         <v>352.14849199999992</v>
       </c>
       <c r="D10" s="67">
-        <f t="shared" ref="D10:D17" si="0">B10+C10</f>
+        <f t="shared" ref="D10:D16" si="0">B10+C10</f>
         <v>2230.2064</v>
       </c>
       <c r="E10" s="67">
@@ -26957,7 +25230,7 @@
         <v>352.94489999999996</v>
       </c>
       <c r="G10" s="67">
-        <f t="shared" ref="G10:G17" si="1">E10+F10</f>
+        <f t="shared" ref="G10:G16" si="1">E10+F10</f>
         <v>2231.4817830000002</v>
       </c>
       <c r="H10" s="67">
@@ -26969,7 +25242,7 @@
         <v>353.300342</v>
       </c>
       <c r="J10" s="67">
-        <f t="shared" ref="J10:J17" si="2">H10+I10</f>
+        <f t="shared" ref="J10:J16" si="2">H10+I10</f>
         <v>2231.9502589999997</v>
       </c>
       <c r="K10" s="67">
@@ -26981,7 +25254,7 @@
         <v>354.22137499999997</v>
       </c>
       <c r="M10" s="67">
-        <f t="shared" ref="M10:M17" si="3">K10+L10</f>
+        <f t="shared" ref="M10:M16" si="3">K10+L10</f>
         <v>2243.7727089999998</v>
       </c>
     </row>
@@ -27253,59 +25526,6 @@
       <c r="M16" s="63">
         <f t="shared" si="3"/>
         <v>303.55264599999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="60">
-        <f>B3+B6+B10</f>
-        <v>3510.6329820000001</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C3+C6+C10</f>
-        <v>776.52197199999978</v>
-      </c>
-      <c r="D17" s="60">
-        <f t="shared" si="0"/>
-        <v>4287.1549539999996</v>
-      </c>
-      <c r="E17" s="60">
-        <f>E3+E6+E10</f>
-        <v>3510.6329820000001</v>
-      </c>
-      <c r="F17" s="60">
-        <f>F3+F6+F10</f>
-        <v>776.52207699999985</v>
-      </c>
-      <c r="G17" s="60">
-        <f t="shared" si="1"/>
-        <v>4287.1550589999997</v>
-      </c>
-      <c r="H17" s="60">
-        <f>H3+H6+H10</f>
-        <v>3510.6329820000001</v>
-      </c>
-      <c r="I17" s="60">
-        <f>I3+I6+I10</f>
-        <v>776.52207700000008</v>
-      </c>
-      <c r="J17" s="60">
-        <f t="shared" si="2"/>
-        <v>4287.1550590000006</v>
-      </c>
-      <c r="K17" s="60">
-        <f>K3+K6+K10</f>
-        <v>3544.6329820000001</v>
-      </c>
-      <c r="L17" s="60">
-        <f>L3+L6+L10</f>
-        <v>776.52207700000008</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>4321.1550590000006</v>
       </c>
     </row>
   </sheetData>
